--- a/Raw Data/Micro Plans/November 2025/Micro Plan - TA-416 Nov'25.xlsx
+++ b/Raw Data/Micro Plans/November 2025/Micro Plan - TA-416 Nov'25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samantaraysk\Desktop\TA-416\Project Plan\Bharat Kaushik Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaushikb\Documents\Work\Git\Office-work-\Raw Data\Micro Plans\November 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8070523-00B7-4769-8F81-DD3E339D9C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BB274E-C3EF-4250-8EEB-96C8CA058FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="757" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="757" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FDN-June25" sheetId="1" state="hidden" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="178">
   <si>
     <t>Project Code</t>
   </si>
@@ -566,10 +566,19 @@
     <t>KONGRESS</t>
   </si>
   <si>
-    <t>DHEERAJ KUMAR</t>
-  </si>
-  <si>
     <t>Somnath</t>
+  </si>
+  <si>
+    <t>NIRANJAN SINGH</t>
+  </si>
+  <si>
+    <t>PUNAM KUMARI-3</t>
+  </si>
+  <si>
+    <t>PUNAM KUMARI-4</t>
+  </si>
+  <si>
+    <t>PUNAM KUMARI-5</t>
   </si>
 </sst>
 </file>
@@ -577,14 +586,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="167" formatCode="[$-409]d/mmm/yy;@"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="#,##0.000"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1025,14 +1034,14 @@
   </borders>
   <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -1052,7 +1061,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1096,13 +1105,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1111,25 +1120,25 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1138,31 +1147,31 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1171,13 +1180,13 @@
     <xf numFmtId="17" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1192,7 +1201,7 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -1207,41 +1216,41 @@
     <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="17" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="17" fillId="6" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="17" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="17" fillId="6" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1269,7 +1278,7 @@
     <xf numFmtId="1" fontId="20" fillId="0" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="8" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="18" fillId="8" borderId="3" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1282,7 +1291,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1300,7 +1309,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1309,16 +1318,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -1330,16 +1339,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1354,7 +1363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1393,22 +1402,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1417,7 +1426,7 @@
     <xf numFmtId="2" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1426,7 +1435,7 @@
     <xf numFmtId="2" fontId="26" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1468,16 +1477,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1509,69 +1518,78 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1587,25 +1605,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1617,8 +1617,26 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -1650,7 +1668,12 @@
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="7" xr:uid="{36A5E538-A591-4B85-8561-9BC706E69FE8}"/>
   </cellStyles>
-  <dxfs count="271">
+  <dxfs count="168">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1673,6 +1696,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1683,6 +1716,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1693,6 +1736,86 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1703,6 +1826,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1723,6 +1856,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1763,6 +1916,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1773,6 +1936,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1783,6 +1956,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1793,6 +1996,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1823,6 +2036,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1833,6 +2056,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1843,6 +2096,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1873,6 +2136,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1903,6 +2176,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1933,6 +2216,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1953,6 +2246,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -1983,6 +2296,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1993,6 +2316,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2003,6 +2336,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2013,6 +2376,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2023,6 +2396,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2033,6 +2416,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2083,6 +2476,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2093,6 +2496,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2103,6 +2536,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2113,6 +2556,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2163,6 +2626,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2173,6 +2646,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2193,6 +2676,36 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -2203,16 +2716,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2223,6 +2726,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2253,26 +2766,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2283,26 +2776,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2313,36 +2786,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -2350,1461 +2793,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -4048,6 +3036,31 @@
     </dxf>
     <dxf>
       <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="20"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color indexed="17"/>
       </font>
       <fill>
@@ -4055,31 +3068,6 @@
           <bgColor indexed="42"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="20"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -4635,38 +3623,38 @@
       <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.1796875" style="4" customWidth="1"/>
     <col min="2" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="8.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="3.140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" style="1" customWidth="1"/>
-    <col min="20" max="25" width="8.7109375" style="1" customWidth="1"/>
-    <col min="26" max="26" width="3.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="8.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22.26953125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.54296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="12.1796875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7265625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="3.1796875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="14.54296875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="3.1796875" style="1" customWidth="1"/>
+    <col min="20" max="25" width="8.7265625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="3.1796875" style="1" customWidth="1"/>
     <col min="27" max="27" width="15" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.5703125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="17.140625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.85546875" style="1" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="15.5703125" style="1" customWidth="1"/>
-    <col min="33" max="33" width="17.140625" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="1"/>
+    <col min="28" max="28" width="15.54296875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="17.1796875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.81640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="10.7265625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="15.54296875" style="1" customWidth="1"/>
+    <col min="33" max="33" width="17.1796875" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -4674,7 +3662,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -4682,11 +3670,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
@@ -4702,7 +3690,7 @@
       <c r="L4" s="82"/>
       <c r="M4" s="83"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -4713,7 +3701,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="16" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="D6" s="2" t="s">
         <v>89</v>
@@ -4724,7 +3712,7 @@
       <c r="K6" s="3"/>
       <c r="M6" s="98"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -4736,11 +3724,11 @@
       <c r="K7" s="3"/>
       <c r="M7" s="98"/>
     </row>
-    <row r="8" spans="1:13" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -4761,13 +3749,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
@@ -4791,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="D12" s="2" t="s">
         <v>25</v>
@@ -4813,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="D13" s="2" t="s">
         <v>26</v>
@@ -4835,7 +3823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="D14" s="2" t="s">
         <v>27</v>
@@ -4857,7 +3845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="D15" s="28" t="s">
         <v>28</v>
@@ -4879,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -4903,144 +3891,144 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="174" t="s">
+    <row r="18" spans="1:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="174" t="s">
+      <c r="B18" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="170" t="s">
+      <c r="C18" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="174" t="s">
+      <c r="D18" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="170" t="s">
+      <c r="E18" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="170" t="s">
+      <c r="F18" s="159" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="174" t="s">
+      <c r="G18" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="161" t="s">
+      <c r="H18" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="164" t="s">
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="174"/>
+      <c r="O18" s="174"/>
+      <c r="P18" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="170" t="s">
+      <c r="R18" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="T18" s="165" t="s">
+      <c r="T18" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="U18" s="166"/>
-      <c r="V18" s="166"/>
-      <c r="W18" s="166"/>
-      <c r="X18" s="166"/>
-      <c r="Y18" s="167"/>
-      <c r="AA18" s="165" t="s">
+      <c r="U18" s="169"/>
+      <c r="V18" s="169"/>
+      <c r="W18" s="169"/>
+      <c r="X18" s="169"/>
+      <c r="Y18" s="170"/>
+      <c r="AA18" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="AB18" s="166"/>
-      <c r="AC18" s="166"/>
-      <c r="AD18" s="166"/>
-      <c r="AE18" s="166"/>
-      <c r="AF18" s="167"/>
-      <c r="AG18" s="168" t="s">
+      <c r="AB18" s="169"/>
+      <c r="AC18" s="169"/>
+      <c r="AD18" s="169"/>
+      <c r="AE18" s="169"/>
+      <c r="AF18" s="170"/>
+      <c r="AG18" s="171" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="175"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="160" t="s">
+    <row r="19" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="163"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="179" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160" t="s">
+      <c r="I19" s="179"/>
+      <c r="J19" s="179" t="s">
         <v>12</v>
       </c>
-      <c r="K19" s="160"/>
-      <c r="L19" s="160" t="s">
+      <c r="K19" s="179"/>
+      <c r="L19" s="179" t="s">
         <v>13</v>
       </c>
-      <c r="M19" s="160"/>
-      <c r="N19" s="158" t="s">
+      <c r="M19" s="179"/>
+      <c r="N19" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="O19" s="158" t="s">
+      <c r="O19" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="P19" s="164"/>
-      <c r="R19" s="171"/>
-      <c r="T19" s="162" t="s">
+      <c r="P19" s="167"/>
+      <c r="R19" s="173"/>
+      <c r="T19" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="U19" s="162" t="s">
+      <c r="U19" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="V19" s="162" t="s">
+      <c r="V19" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="W19" s="162" t="s">
+      <c r="W19" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="X19" s="162" t="s">
+      <c r="X19" s="165" t="s">
         <v>28</v>
       </c>
       <c r="Y19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AA19" s="162" t="s">
+      <c r="AA19" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="AB19" s="162" t="s">
+      <c r="AB19" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="AC19" s="162" t="s">
+      <c r="AC19" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="AD19" s="162" t="s">
+      <c r="AD19" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="AE19" s="162" t="s">
+      <c r="AE19" s="165" t="s">
         <v>28</v>
       </c>
       <c r="AF19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AG19" s="169"/>
-    </row>
-    <row r="20" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="176"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="173"/>
-      <c r="G20" s="175"/>
+      <c r="AG19" s="172"/>
+    </row>
+    <row r="20" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="164"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="163"/>
       <c r="H20" s="94" t="s">
         <v>10</v>
       </c>
@@ -5059,25 +4047,25 @@
       <c r="M20" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="N20" s="159"/>
-      <c r="O20" s="159"/>
+      <c r="N20" s="176"/>
+      <c r="O20" s="176"/>
       <c r="P20" s="44" t="s">
         <v>51</v>
       </c>
       <c r="R20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="T20" s="163"/>
-      <c r="U20" s="163"/>
-      <c r="V20" s="163"/>
-      <c r="W20" s="163"/>
-      <c r="X20" s="163"/>
+      <c r="T20" s="166"/>
+      <c r="U20" s="166"/>
+      <c r="V20" s="166"/>
+      <c r="W20" s="166"/>
+      <c r="X20" s="166"/>
       <c r="Y20" s="19"/>
-      <c r="AA20" s="163"/>
-      <c r="AB20" s="163"/>
-      <c r="AC20" s="163"/>
-      <c r="AD20" s="163"/>
-      <c r="AE20" s="163"/>
+      <c r="AA20" s="166"/>
+      <c r="AB20" s="166"/>
+      <c r="AC20" s="166"/>
+      <c r="AD20" s="166"/>
+      <c r="AE20" s="166"/>
       <c r="AF20" s="19" t="s">
         <v>51</v>
       </c>
@@ -5085,7 +4073,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="97">
         <v>1</v>
       </c>
@@ -5177,7 +4165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="97">
         <v>2</v>
       </c>
@@ -5223,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="97">
         <v>3</v>
       </c>
@@ -5281,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="97">
         <v>4</v>
       </c>
@@ -5339,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="97">
         <v>5</v>
       </c>
@@ -5348,7 +4336,7 @@
       <c r="D25" s="86"/>
       <c r="E25" s="102"/>
       <c r="F25" s="8"/>
-      <c r="G25" s="156"/>
+      <c r="G25" s="177"/>
       <c r="H25" s="100"/>
       <c r="I25" s="100"/>
       <c r="J25" s="100"/>
@@ -5397,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="97">
         <v>6</v>
       </c>
@@ -5406,7 +4394,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="103"/>
       <c r="F26" s="97"/>
-      <c r="G26" s="157"/>
+      <c r="G26" s="178"/>
       <c r="H26" s="100"/>
       <c r="I26" s="100"/>
       <c r="J26" s="100"/>
@@ -5455,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="97">
         <v>7</v>
       </c>
@@ -5513,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="97"/>
       <c r="B28" s="104"/>
       <c r="C28" s="104"/>
@@ -5569,7 +4557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="20.100000000000001" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" ht="20.149999999999999" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="92"/>
       <c r="C29" s="93"/>
@@ -5625,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
@@ -5705,7 +4693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="N32" s="55" t="s">
         <v>87</v>
       </c>
@@ -5714,7 +4702,7 @@
         <v>7224.33</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B33" s="76"/>
       <c r="C33" s="76"/>
       <c r="D33" s="77"/>
@@ -5732,7 +4720,7 @@
         <v>7782.57</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B34" s="78"/>
       <c r="C34" s="76"/>
       <c r="D34" s="77"/>
@@ -5761,13 +4749,16 @@
     <filterColumn colId="13" showButton="0"/>
   </autoFilter>
   <mergeCells count="29">
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="O19:O20"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="H18:O18"/>
+    <mergeCell ref="N19:N20"/>
+    <mergeCell ref="U19:U20"/>
+    <mergeCell ref="V19:V20"/>
+    <mergeCell ref="W19:W20"/>
     <mergeCell ref="X19:X20"/>
     <mergeCell ref="P18:P19"/>
     <mergeCell ref="AA18:AF18"/>
@@ -5780,166 +4771,163 @@
     <mergeCell ref="R18:R19"/>
     <mergeCell ref="T18:Y18"/>
     <mergeCell ref="T19:T20"/>
-    <mergeCell ref="H18:O18"/>
-    <mergeCell ref="N19:N20"/>
-    <mergeCell ref="U19:U20"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B21">
-    <cfRule type="duplicateValues" dxfId="270" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="269" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="268" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="267" priority="4"/>
-    <cfRule type="expression" dxfId="266" priority="5" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="167" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="4"/>
+    <cfRule type="expression" dxfId="163" priority="5" stopIfTrue="1">
       <formula>AND(COUNTIF($D$28:$D$37, B21)+COUNTIF($D$16:$D$16, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="265" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="6" stopIfTrue="1">
       <formula>AND(COUNTIF($D$28:$D$65380, B21)+COUNTIF($D$1:$D$16, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="264" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="7" stopIfTrue="1">
       <formula>AND(COUNTIF($D$17:$D$65380, B21)+COUNTIF($D$1:$D$16, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="263" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="8" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$123, B21)+COUNTIF($D$142:$D$65380, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="262" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="9" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B21)+COUNTIF($D$214:$D$65380, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="261" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="10" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B21)+COUNTIF($D$214:$D$65380, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="260" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="11" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B21)+COUNTIF($D$214:$D$65380, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="259" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="12" stopIfTrue="1">
       <formula>AND(COUNTIF($D$474:$D$65380, B21)+COUNTIF($D$454:$D$455, B21)+COUNTIF($D$416:$D$417, B21)+COUNTIF($D$374:$D$377, B21)+COUNTIF($D$351:$D$352, B21)+COUNTIF($D$324:$D$325, B21)+COUNTIF($D$303:$D$303, B21)+COUNTIF($D$288:$D$289, B21)+COUNTIF($D$263:$D$263, B21)+COUNTIF($D$252:$D$253, B21)+COUNTIF($D$233:$D$234, B21)+COUNTIF($D$51:$D$218, B21)+COUNTIF($D$219:$D$220, B21)+COUNTIF($D$1:$D$50, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:B27">
-    <cfRule type="duplicateValues" dxfId="258" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="155" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="257" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="256" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="255" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="254" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="253" priority="20"/>
-    <cfRule type="expression" dxfId="252" priority="1251" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="151" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="20"/>
+    <cfRule type="expression" dxfId="149" priority="1251" stopIfTrue="1">
       <formula>AND(COUNTIF($C$2:$C$65291, B23)+COUNTIF(#REF!, B23)&gt;1,NOT(ISBLANK(B23)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="251" priority="1252" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="1252" stopIfTrue="1">
       <formula>AND(COUNTIF($C$145:$C$65291, B23)+COUNTIF($C$125:$C$126, B23)+COUNTIF($C$87:$C$88, B23)+COUNTIF($C$45:$C$48, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF(#REF!, B23)+COUNTIF($B$9:$B$9, B23)+COUNTIF($C$2:$C$8, B23)&gt;1,NOT(ISBLANK(B23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27 B21 B23">
-    <cfRule type="expression" dxfId="250" priority="1248" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="1248" stopIfTrue="1">
       <formula>AND(COUNTIF($C$1:$C$65282, B21)+COUNTIF(#REF!, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27 B23 B21">
-    <cfRule type="expression" dxfId="249" priority="1236" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="1236" stopIfTrue="1">
       <formula>AND(COUNTIF($C$136:$C$65282, B21)+COUNTIF($C$116:$C$117, B21)+COUNTIF($C$78:$C$79, B21)+COUNTIF($C$36:$C$39, B21)+COUNTIF($C$23:$C$24, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF(#REF!, B21)+COUNTIF($C$1:$C$5, B21)&gt;1,NOT(ISBLANK(B21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B27">
-    <cfRule type="duplicateValues" dxfId="248" priority="1239"/>
-    <cfRule type="expression" dxfId="247" priority="1240" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="145" priority="1239"/>
+    <cfRule type="expression" dxfId="144" priority="1240" stopIfTrue="1">
       <formula>AND(COUNTIF($D$28:$D$37, B26)+COUNTIF($D$16:$D$16, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="246" priority="1241" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="1241" stopIfTrue="1">
       <formula>AND(COUNTIF($D$28:$D$65380, B26)+COUNTIF($D$1:$D$16, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="245" priority="1242" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="1242" stopIfTrue="1">
       <formula>AND(COUNTIF($D$17:$D$65380, B26)+COUNTIF($D$1:$D$16, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="244" priority="1243" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="1243" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$123, B26)+COUNTIF($D$142:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="243" priority="1245" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="1244" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B26)+COUNTIF($D$214:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="242" priority="1246" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="1245" stopIfTrue="1">
       <formula>AND(COUNTIF($D$1:$D$191, B26)+COUNTIF($D$214:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="241" priority="1247" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="1246" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$1:$D$191, B26)+COUNTIF($D$214:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="137" priority="1247" stopIfTrue="1">
       <formula>AND(COUNTIF($D$474:$D$65380, B26)+COUNTIF($D$454:$D$455, B26)+COUNTIF($D$416:$D$417, B26)+COUNTIF($D$374:$D$377, B26)+COUNTIF($D$351:$D$352, B26)+COUNTIF($D$324:$D$325, B26)+COUNTIF($D$303:$D$303, B26)+COUNTIF($D$288:$D$289, B26)+COUNTIF($D$263:$D$263, B26)+COUNTIF($D$252:$D$253, B26)+COUNTIF($D$233:$D$234, B26)+COUNTIF($D$51:$D$218, B26)+COUNTIF($D$219:$D$220, B26)+COUNTIF($D$1:$D$50, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="240" priority="1244" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$1:$D$191, B26)+COUNTIF($D$214:$D$65380, B26)&gt;1,NOT(ISBLANK(B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="duplicateValues" dxfId="239" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="238" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="237" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="duplicateValues" dxfId="236" priority="1190"/>
-    <cfRule type="duplicateValues" dxfId="235" priority="1191"/>
-    <cfRule type="duplicateValues" dxfId="234" priority="1192"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="1190"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="1191"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="1192"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B1048576 B1:B20">
-    <cfRule type="duplicateValues" dxfId="233" priority="347"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="347"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="232" priority="1221" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="1220" stopIfTrue="1">
+      <formula>AND(COUNTIF($C$314:$C$65460, L4)+COUNTIF($C$294:$C$295, L4)+COUNTIF($C$256:$C$257, L4)+COUNTIF($C$214:$C$217, L4)+COUNTIF($C$191:$C$192, L4)+COUNTIF($C$164:$C$165, L4)+COUNTIF($C$143:$C$143, L4)+COUNTIF($C$128:$C$129, L4)+COUNTIF($C$103:$C$103, L4)+COUNTIF($C$92:$C$93, L4)+COUNTIF($C$73:$C$74, L4)+COUNTIF($C$29:$C$56, L4)+COUNTIF($C$58:$C$60, L4)+COUNTIF($C$1:$C$27, L4)&gt;1,NOT(ISBLANK(L4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="128" priority="1221" stopIfTrue="1">
       <formula>AND(COUNTIF($C$1:$C$65460, L4)+COUNTIF(#REF!, L4)&gt;1,NOT(ISBLANK(L4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="231" priority="1220" stopIfTrue="1">
-      <formula>AND(COUNTIF($C$314:$C$65460, L4)+COUNTIF($C$294:$C$295, L4)+COUNTIF($C$256:$C$257, L4)+COUNTIF($C$214:$C$217, L4)+COUNTIF($C$191:$C$192, L4)+COUNTIF($C$164:$C$165, L4)+COUNTIF($C$143:$C$143, L4)+COUNTIF($C$128:$C$129, L4)+COUNTIF($C$103:$C$103, L4)+COUNTIF($C$92:$C$93, L4)+COUNTIF($C$73:$C$74, L4)+COUNTIF($C$29:$C$56, L4)+COUNTIF($C$58:$C$60, L4)+COUNTIF($C$1:$C$27, L4)&gt;1,NOT(ISBLANK(L4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="230" priority="1223" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="1222" stopIfTrue="1">
+      <formula>AND(COUNTIF($D$331:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$314:$D$315, M4)+COUNTIF($D$294:$D$295, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="126" priority="1223" stopIfTrue="1">
       <formula>AND(COUNTIF($D$314:$D$65460, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$294:$D$295, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="229" priority="1224" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="1224" stopIfTrue="1">
       <formula>AND(COUNTIF($D$294:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="228" priority="1225" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="1225" stopIfTrue="1">
       <formula>AND(COUNTIF($D$256:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="227" priority="1226" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="1226" stopIfTrue="1">
       <formula>AND(COUNTIF($D$214:$D$65460, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="226" priority="1227" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="1227" stopIfTrue="1">
       <formula>AND(COUNTIF($D$214:$D$65460, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$51:$D$51, M4)+COUNTIF($D$53:$D$60, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="225" priority="1228" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="1228" stopIfTrue="1">
       <formula>AND(COUNTIF($D$191:$D$65460, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$51:$D$51, M4)+COUNTIF($D$53:$D$60, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="224" priority="1229" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="1229" stopIfTrue="1">
       <formula>AND(COUNTIF($F$369:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$352:$F$353, M4)+COUNTIF($F$332:$F$333, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="223" priority="1230" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="1230" stopIfTrue="1">
       <formula>AND(COUNTIF($F$352:$F$65454, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$332:$F$333, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="222" priority="1231" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="1231" stopIfTrue="1">
       <formula>AND(COUNTIF($F$332:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$294:$F$295, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="221" priority="1232" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="1232" stopIfTrue="1">
       <formula>AND(COUNTIF($F$294:$F$65454, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$252:$F$255, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="220" priority="1233" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="1233" stopIfTrue="1">
       <formula>AND(COUNTIF($F$252:$F$65454, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$96:$F$98, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="219" priority="1234" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="1234" stopIfTrue="1">
       <formula>AND(COUNTIF($F$252:$F$65454, M4)+COUNTIF($F$229:$F$230, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$89:$F$89, M4)+COUNTIF($F$91:$F$98, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="218" priority="1235" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="1235" stopIfTrue="1">
       <formula>AND(COUNTIF($F$229:$F$65454, M4)+COUNTIF($F$202:$F$203, M4)+COUNTIF($F$181:$F$181, M4)+COUNTIF($F$166:$F$167, M4)+COUNTIF($F$1:$F$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$141:$F$141, M4)+COUNTIF($F$130:$F$131, M4)+COUNTIF(#REF!, M4)+COUNTIF($F$111:$F$112, M4)+COUNTIF($F$89:$F$89, M4)+COUNTIF($F$91:$F$98, M4)+COUNTIF(#REF!, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="217" priority="1222" stopIfTrue="1">
-      <formula>AND(COUNTIF($D$331:$D$65460, M4)+COUNTIF($D$1:$D$27, M4)+COUNTIF(#REF!, M4)+COUNTIF($D$314:$D$315, M4)+COUNTIF($D$294:$D$295, M4)+COUNTIF($D$256:$D$257, M4)+COUNTIF($D$214:$D$217, M4)+COUNTIF($D$191:$D$192, M4)+COUNTIF($D$164:$D$165, M4)+COUNTIF($D$143:$D$143, M4)+COUNTIF($D$128:$D$129, M4)+COUNTIF($D$103:$D$103, M4)+COUNTIF($D$92:$D$93, M4)+COUNTIF($D$73:$D$74, M4)+COUNTIF($D$58:$D$60, M4)&gt;1,NOT(ISBLANK(M4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -5956,20 +4944,20 @@
       <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" customWidth="1"/>
     <col min="8" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="16.1796875" customWidth="1"/>
     <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:18" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="2:18" ht="56" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="56" t="s">
         <v>53</v>
       </c>
@@ -6022,7 +5010,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="60" t="s">
         <v>69</v>
       </c>
@@ -6065,11 +5053,11 @@
       <c r="Q4" s="70">
         <v>0</v>
       </c>
-      <c r="R4" s="177" t="s">
+      <c r="R4" s="180" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="60" t="s">
         <v>69</v>
       </c>
@@ -6108,14 +5096,14 @@
       <c r="Q5" s="70">
         <v>0</v>
       </c>
-      <c r="R5" s="178"/>
-    </row>
-    <row r="6" spans="2:18" s="75" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="179" t="s">
+      <c r="R5" s="181"/>
+    </row>
+    <row r="6" spans="2:18" s="75" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="180"/>
-      <c r="D6" s="181"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="184"/>
       <c r="E6" s="73">
         <v>160</v>
       </c>
@@ -6142,7 +5130,7 @@
     <mergeCell ref="B6:D6"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E5">
-    <cfRule type="containsText" dxfId="216" priority="1" operator="containsText" text="proto">
+    <cfRule type="containsText" dxfId="113" priority="1" operator="containsText" text="proto">
       <formula>NOT(ISERROR(SEARCH("proto",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6157,44 +5145,44 @@
   </sheetPr>
   <dimension ref="A1:AK29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H5"/>
+    <sheetView tabSelected="1" topLeftCell="E20" zoomScale="88" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="4" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="4" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" style="1" customWidth="1"/>
-    <col min="17" max="18" width="15.5703125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="3.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="28.140625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="3.140625" style="1" customWidth="1"/>
-    <col min="22" max="27" width="8.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="3.140625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.28515625" style="1" customWidth="1"/>
-    <col min="31" max="32" width="10.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.28515625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.140625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="38.140625" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.81640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.7265625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.7265625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7265625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.1796875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.54296875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.54296875" style="1" customWidth="1"/>
+    <col min="17" max="18" width="15.54296875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="3.1796875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="28.1796875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.1796875" style="1" customWidth="1"/>
+    <col min="22" max="27" width="8.7265625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="3.1796875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="14.26953125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.26953125" style="1" customWidth="1"/>
+    <col min="31" max="32" width="10.7265625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.26953125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="8.1796875" style="1" customWidth="1"/>
+    <col min="35" max="35" width="38.1796875" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="130" t="s">
         <v>4</v>
       </c>
@@ -6244,7 +5232,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -6257,10 +5245,12 @@
       <c r="D2" s="148">
         <v>43.776000000000003</v>
       </c>
-      <c r="E2" s="184" t="s">
+      <c r="E2" s="189" t="s">
         <v>164</v>
       </c>
-      <c r="F2" s="184"/>
+      <c r="F2" s="195">
+        <v>27</v>
+      </c>
       <c r="G2" s="120" t="s">
         <v>124</v>
       </c>
@@ -6290,7 +5280,7 @@
       </c>
       <c r="P2" s="101"/>
     </row>
-    <row r="3" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -6303,8 +5293,12 @@
       <c r="D3" s="8">
         <v>64.481999999999999</v>
       </c>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
+      <c r="E3" s="189" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="195">
+        <v>27</v>
+      </c>
       <c r="G3" s="120" t="s">
         <v>125</v>
       </c>
@@ -6350,7 +5344,7 @@
       <c r="AH3" s="134"/>
       <c r="AI3" s="136"/>
     </row>
-    <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -6363,12 +5357,18 @@
       <c r="D4" s="114">
         <v>97.228999999999999</v>
       </c>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
+      <c r="E4" s="189" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="195">
+        <v>27</v>
+      </c>
       <c r="G4" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="H4" s="120"/>
+      <c r="H4" s="120" t="s">
+        <v>127</v>
+      </c>
       <c r="I4" s="120" t="s">
         <v>152</v>
       </c>
@@ -6408,7 +5408,7 @@
       <c r="AH4" s="136"/>
       <c r="AI4" s="136"/>
     </row>
-    <row r="5" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -6421,14 +5421,16 @@
       <c r="D5" s="148">
         <v>110.575</v>
       </c>
-      <c r="E5" s="184" t="s">
+      <c r="E5" s="189" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="184"/>
+      <c r="F5" s="189"/>
       <c r="G5" s="120" t="s">
         <v>124</v>
       </c>
-      <c r="H5" s="120"/>
+      <c r="H5" s="120" t="s">
+        <v>126</v>
+      </c>
       <c r="I5" s="120"/>
       <c r="J5" s="85">
         <v>45948</v>
@@ -6466,7 +5468,7 @@
       <c r="AH5" s="138"/>
       <c r="AI5" s="138"/>
     </row>
-    <row r="6" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -6479,8 +5481,10 @@
       <c r="D6" s="148">
         <v>110.696</v>
       </c>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
+      <c r="E6" s="189" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="190"/>
       <c r="G6" s="120" t="s">
         <v>124</v>
       </c>
@@ -6526,11 +5530,11 @@
       <c r="AH6" s="143"/>
       <c r="AI6" s="144"/>
     </row>
-    <row r="7" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="156" t="s">
         <v>139</v>
       </c>
       <c r="C7" s="114" t="s">
@@ -6539,10 +5543,12 @@
       <c r="D7" s="114">
         <v>97.228999999999999</v>
       </c>
-      <c r="E7" s="182" t="s">
+      <c r="E7" s="191" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="182"/>
+      <c r="F7" s="191">
+        <v>25</v>
+      </c>
       <c r="G7" s="120" t="s">
         <v>125</v>
       </c>
@@ -6558,19 +5564,22 @@
       <c r="K7" s="85">
         <v>45955</v>
       </c>
-      <c r="L7" s="85">
-        <v>45965</v>
+      <c r="L7" s="157">
+        <v>45968</v>
       </c>
       <c r="M7" s="85">
-        <v>45966</v>
+        <v>45969</v>
       </c>
       <c r="N7" s="85">
-        <v>45967</v>
+        <v>45970</v>
       </c>
       <c r="O7" s="153">
         <v>837742.5</v>
       </c>
-      <c r="P7" s="101"/>
+      <c r="P7" s="101">
+        <f>O7</f>
+        <v>837742.5</v>
+      </c>
       <c r="Q7" s="129"/>
       <c r="R7" s="129"/>
       <c r="T7" s="140"/>
@@ -6588,7 +5597,7 @@
       <c r="AH7" s="143"/>
       <c r="AI7" s="144"/>
     </row>
-    <row r="8" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -6601,12 +5610,18 @@
       <c r="D8" s="114">
         <v>101.93300000000001</v>
       </c>
-      <c r="E8" s="183"/>
-      <c r="F8" s="183"/>
+      <c r="E8" s="191" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="191">
+        <v>25</v>
+      </c>
       <c r="G8" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="120"/>
+      <c r="H8" s="120" t="s">
+        <v>151</v>
+      </c>
       <c r="I8" s="120"/>
       <c r="J8" s="85">
         <v>45966</v>
@@ -6644,7 +5659,7 @@
       <c r="AH8" s="143"/>
       <c r="AI8" s="144"/>
     </row>
-    <row r="9" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -6657,10 +5672,10 @@
       <c r="D9" s="114">
         <v>90.125</v>
       </c>
-      <c r="E9" s="182" t="s">
+      <c r="E9" s="191" t="s">
         <v>167</v>
       </c>
-      <c r="F9" s="182"/>
+      <c r="F9" s="191"/>
       <c r="G9" s="120" t="s">
         <v>125</v>
       </c>
@@ -6706,7 +5721,7 @@
       <c r="AH9" s="143"/>
       <c r="AI9" s="144"/>
     </row>
-    <row r="10" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -6719,12 +5734,16 @@
       <c r="D10" s="148">
         <v>113.682</v>
       </c>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
+      <c r="E10" s="191" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="193"/>
       <c r="G10" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="H10" s="120"/>
+      <c r="H10" s="120" t="s">
+        <v>149</v>
+      </c>
       <c r="I10" s="120" t="s">
         <v>152</v>
       </c>
@@ -6764,23 +5783,25 @@
       <c r="AH10" s="143"/>
       <c r="AI10" s="144"/>
     </row>
-    <row r="11" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>10</v>
       </c>
       <c r="B11" s="99" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="C11" s="99" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="8">
-        <v>53.323999999999998</v>
-      </c>
-      <c r="E11" s="182" t="s">
-        <v>173</v>
-      </c>
-      <c r="F11" s="182"/>
+        <v>50</v>
+      </c>
+      <c r="D11" s="148">
+        <v>43.776000000000003</v>
+      </c>
+      <c r="E11" s="191" t="s">
+        <v>174</v>
+      </c>
+      <c r="F11" s="191">
+        <v>20</v>
+      </c>
       <c r="G11" s="120" t="s">
         <v>125</v>
       </c>
@@ -6805,8 +5826,8 @@
       <c r="N11" s="85">
         <v>45976</v>
       </c>
-      <c r="O11" s="150">
-        <v>450627.94</v>
+      <c r="O11" s="153">
+        <v>371402</v>
       </c>
       <c r="P11" s="101"/>
       <c r="Q11" s="129"/>
@@ -6826,7 +5847,7 @@
       <c r="AH11" s="143"/>
       <c r="AI11" s="144"/>
     </row>
-    <row r="12" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>11</v>
       </c>
@@ -6839,12 +5860,18 @@
       <c r="D12" s="148">
         <v>43.776000000000003</v>
       </c>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
+      <c r="E12" s="191" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="191">
+        <v>20</v>
+      </c>
       <c r="G12" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="H12" s="120"/>
+      <c r="H12" s="120" t="s">
+        <v>150</v>
+      </c>
       <c r="I12" s="120" t="s">
         <v>152</v>
       </c>
@@ -6884,11 +5911,11 @@
       <c r="AH12" s="143"/>
       <c r="AI12" s="144"/>
     </row>
-    <row r="13" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="156" t="s">
         <v>140</v>
       </c>
       <c r="C13" s="114" t="s">
@@ -6897,10 +5924,12 @@
       <c r="D13" s="114">
         <v>75.897000000000006</v>
       </c>
-      <c r="E13" s="182" t="s">
+      <c r="E13" s="191" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="182"/>
+      <c r="F13" s="191">
+        <v>27</v>
+      </c>
       <c r="G13" s="120" t="s">
         <v>125</v>
       </c>
@@ -6914,19 +5943,22 @@
       <c r="K13" s="85">
         <v>45963</v>
       </c>
-      <c r="L13" s="85">
-        <v>45974</v>
+      <c r="L13" s="157">
+        <v>45970</v>
       </c>
       <c r="M13" s="85">
-        <v>45975</v>
+        <v>45971</v>
       </c>
       <c r="N13" s="85">
-        <v>45976</v>
+        <v>45972</v>
       </c>
       <c r="O13" s="153">
         <v>669569.35</v>
       </c>
-      <c r="P13" s="101"/>
+      <c r="P13" s="101">
+        <f>O13</f>
+        <v>669569.35</v>
+      </c>
       <c r="Q13" s="129"/>
       <c r="R13" s="129"/>
       <c r="T13" s="140"/>
@@ -6944,7 +5976,7 @@
       <c r="AH13" s="143"/>
       <c r="AI13" s="144"/>
     </row>
-    <row r="14" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>13</v>
       </c>
@@ -6957,12 +5989,18 @@
       <c r="D14" s="148">
         <v>124.03700000000001</v>
       </c>
-      <c r="E14" s="187"/>
-      <c r="F14" s="187"/>
+      <c r="E14" s="191" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="191">
+        <v>27</v>
+      </c>
       <c r="G14" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="H14" s="120"/>
+      <c r="H14" s="120" t="s">
+        <v>149</v>
+      </c>
       <c r="I14" s="120" t="s">
         <v>152</v>
       </c>
@@ -7003,11 +6041,11 @@
       <c r="AI14" s="144"/>
       <c r="AK14" s="101"/>
     </row>
-    <row r="15" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="158" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="114" t="s">
@@ -7016,10 +6054,12 @@
       <c r="D15" s="114">
         <v>73.426000000000002</v>
       </c>
-      <c r="E15" s="182" t="s">
+      <c r="E15" s="191" t="s">
         <v>169</v>
       </c>
-      <c r="F15" s="182"/>
+      <c r="F15" s="191">
+        <v>24</v>
+      </c>
       <c r="G15" s="120" t="s">
         <v>125</v>
       </c>
@@ -7033,19 +6073,22 @@
       <c r="K15" s="85">
         <v>45955</v>
       </c>
-      <c r="L15" s="85">
-        <v>45966</v>
+      <c r="L15" s="157">
+        <v>45968</v>
       </c>
       <c r="M15" s="85">
-        <v>45967</v>
+        <v>45969</v>
       </c>
       <c r="N15" s="85">
-        <v>45968</v>
+        <v>45970</v>
       </c>
       <c r="O15" s="153">
         <v>666437.35</v>
       </c>
-      <c r="P15" s="101"/>
+      <c r="P15" s="101">
+        <f>O15</f>
+        <v>666437.35</v>
+      </c>
       <c r="Q15" s="129"/>
       <c r="R15" s="129"/>
       <c r="T15" s="140"/>
@@ -7063,7 +6106,7 @@
       <c r="AH15" s="143"/>
       <c r="AI15" s="144"/>
     </row>
-    <row r="16" spans="1:37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>15</v>
       </c>
@@ -7076,12 +6119,18 @@
       <c r="D16" s="114">
         <v>42.374000000000002</v>
       </c>
-      <c r="E16" s="183"/>
-      <c r="F16" s="183"/>
+      <c r="E16" s="191" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="191">
+        <v>24</v>
+      </c>
       <c r="G16" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="120"/>
+      <c r="H16" s="120" t="s">
+        <v>128</v>
+      </c>
       <c r="I16" s="120"/>
       <c r="J16" s="85">
         <v>45967</v>
@@ -7119,7 +6168,7 @@
       <c r="AH16" s="143"/>
       <c r="AI16" s="144"/>
     </row>
-    <row r="17" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -7132,8 +6181,12 @@
       <c r="D17" s="114">
         <v>64.481999999999999</v>
       </c>
-      <c r="E17" s="183"/>
-      <c r="F17" s="183"/>
+      <c r="E17" s="191" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="191">
+        <v>24</v>
+      </c>
       <c r="G17" s="120" t="s">
         <v>125</v>
       </c>
@@ -7179,7 +6232,7 @@
       <c r="AH17" s="143"/>
       <c r="AI17" s="144"/>
     </row>
-    <row r="18" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>17</v>
       </c>
@@ -7192,12 +6245,18 @@
       <c r="D18" s="114">
         <v>42.374000000000002</v>
       </c>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
+      <c r="E18" s="191" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="191">
+        <v>24</v>
+      </c>
       <c r="G18" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="120"/>
+      <c r="H18" s="120" t="s">
+        <v>128</v>
+      </c>
       <c r="I18" s="120"/>
       <c r="J18" s="85">
         <v>45983</v>
@@ -7235,7 +6294,7 @@
       <c r="AH18" s="143"/>
       <c r="AI18" s="144"/>
     </row>
-    <row r="19" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -7248,10 +6307,12 @@
       <c r="D19" s="114">
         <v>43.776000000000003</v>
       </c>
-      <c r="E19" s="182" t="s">
+      <c r="E19" s="191" t="s">
         <v>170</v>
       </c>
-      <c r="F19" s="182"/>
+      <c r="F19" s="191">
+        <v>20</v>
+      </c>
       <c r="G19" s="120" t="s">
         <v>125</v>
       </c>
@@ -7295,7 +6356,7 @@
       <c r="AH19" s="143"/>
       <c r="AI19" s="144"/>
     </row>
-    <row r="20" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>19</v>
       </c>
@@ -7308,12 +6369,18 @@
       <c r="D20" s="8">
         <v>53.323999999999998</v>
       </c>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
+      <c r="E20" s="191" t="s">
+        <v>170</v>
+      </c>
+      <c r="F20" s="191">
+        <v>20</v>
+      </c>
       <c r="G20" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="H20" s="120"/>
+      <c r="H20" s="120" t="s">
+        <v>128</v>
+      </c>
       <c r="I20" s="120" t="s">
         <v>152</v>
       </c>
@@ -7353,25 +6420,31 @@
       <c r="AH20" s="143"/>
       <c r="AI20" s="144"/>
     </row>
-    <row r="21" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>20</v>
       </c>
       <c r="B21" s="99" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="C21" s="99" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="148">
-        <v>43.776000000000003</v>
-      </c>
-      <c r="E21" s="183"/>
-      <c r="F21" s="183"/>
+        <v>82</v>
+      </c>
+      <c r="D21" s="8">
+        <v>53.323999999999998</v>
+      </c>
+      <c r="E21" s="191" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="191">
+        <v>20</v>
+      </c>
       <c r="G21" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="H21" s="120"/>
+      <c r="H21" s="120" t="s">
+        <v>128</v>
+      </c>
       <c r="I21" s="120" t="s">
         <v>152</v>
       </c>
@@ -7390,8 +6463,8 @@
       <c r="N21" s="85">
         <v>45986</v>
       </c>
-      <c r="O21" s="153">
-        <v>371402</v>
+      <c r="O21" s="150">
+        <v>450627.94</v>
       </c>
       <c r="P21" s="101"/>
       <c r="Q21" s="129"/>
@@ -7411,7 +6484,7 @@
       <c r="AH21" s="143"/>
       <c r="AI21" s="144"/>
     </row>
-    <row r="22" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>21</v>
       </c>
@@ -7424,12 +6497,18 @@
       <c r="D22" s="148">
         <v>46.048999999999999</v>
       </c>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
+      <c r="E22" s="191" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="191">
+        <v>20</v>
+      </c>
       <c r="G22" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="H22" s="120"/>
+      <c r="H22" s="120" t="s">
+        <v>128</v>
+      </c>
       <c r="I22" s="120"/>
       <c r="J22" s="85">
         <v>45985</v>
@@ -7467,7 +6546,7 @@
       <c r="AH22" s="143"/>
       <c r="AI22" s="144"/>
     </row>
-    <row r="23" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -7480,15 +6559,17 @@
       <c r="D23" s="114">
         <v>188.37799999999999</v>
       </c>
-      <c r="E23" s="188" t="s">
+      <c r="E23" s="194" t="s">
         <v>171</v>
       </c>
-      <c r="F23" s="188"/>
+      <c r="F23" s="191">
+        <v>40</v>
+      </c>
       <c r="G23" s="120" t="s">
         <v>125</v>
       </c>
       <c r="H23" s="120" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I23" s="120" t="s">
         <v>152</v>
@@ -7529,7 +6610,7 @@
       <c r="AH23" s="143"/>
       <c r="AI23" s="144"/>
     </row>
-    <row r="24" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>23</v>
       </c>
@@ -7542,12 +6623,18 @@
       <c r="D24" s="148">
         <v>43.776000000000003</v>
       </c>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
+      <c r="E24" s="194" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="191">
+        <v>40</v>
+      </c>
       <c r="G24" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="120"/>
+      <c r="H24" s="120" t="s">
+        <v>173</v>
+      </c>
       <c r="I24" s="120"/>
       <c r="J24" s="85">
         <v>45968</v>
@@ -7584,7 +6671,7 @@
       <c r="AH24" s="143"/>
       <c r="AI24" s="144"/>
     </row>
-    <row r="25" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -7597,14 +6684,16 @@
       <c r="D25" s="114">
         <v>97.228999999999999</v>
       </c>
-      <c r="E25" s="183" t="s">
+      <c r="E25" s="192" t="s">
         <v>172</v>
       </c>
-      <c r="F25" s="183"/>
+      <c r="F25" s="191"/>
       <c r="G25" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="H25" s="120"/>
+      <c r="H25" s="120" t="s">
+        <v>173</v>
+      </c>
       <c r="I25" s="120"/>
       <c r="J25" s="85">
         <v>45968</v>
@@ -7642,7 +6731,7 @@
       <c r="AH25" s="143"/>
       <c r="AI25" s="144"/>
     </row>
-    <row r="26" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>25</v>
       </c>
@@ -7655,12 +6744,16 @@
       <c r="D26" s="114">
         <v>97.228999999999999</v>
       </c>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
+      <c r="E26" s="192" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="193"/>
       <c r="G26" s="120" t="s">
         <v>125</v>
       </c>
-      <c r="H26" s="120"/>
+      <c r="H26" s="120" t="s">
+        <v>173</v>
+      </c>
       <c r="I26" s="120" t="s">
         <v>152</v>
       </c>
@@ -7700,32 +6793,10 @@
       <c r="AH26" s="143"/>
       <c r="AI26" s="144"/>
     </row>
-    <row r="27" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
-      <c r="D27" s="149">
-        <f>SUM(D2:D26)</f>
-        <v>1962.9540000000002</v>
-      </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="152">
-        <f>SUM(O2:O26)</f>
-        <v>17412485.5</v>
-      </c>
-      <c r="P27" s="152">
-        <f>SUM(P2:P26)</f>
-        <v>0</v>
-      </c>
       <c r="Q27" s="129"/>
       <c r="R27" s="129"/>
       <c r="T27" s="140"/>
@@ -7743,16 +6814,30 @@
       <c r="AH27" s="143"/>
       <c r="AI27" s="144"/>
     </row>
-    <row r="28" spans="1:35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
+      <c r="D28" s="149">
+        <f>SUM(D2:D26)</f>
+        <v>1962.9540000000002</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="152">
+        <f>SUM(O2:O26)</f>
+        <v>17412485.5</v>
+      </c>
+      <c r="P28" s="152">
+        <f>SUM(P2:P26)</f>
+        <v>2173749.2000000002</v>
+      </c>
       <c r="Q28" s="129"/>
       <c r="R28" s="129"/>
       <c r="T28" s="140"/>
@@ -7770,7 +6855,7 @@
       <c r="AH28" s="143"/>
       <c r="AI28" s="144"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="AC29" s="145"/>
       <c r="AD29" s="145"/>
       <c r="AE29" s="145"/>
@@ -7780,415 +6865,408 @@
       <c r="AI29" s="145"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P27" xr:uid="{035547A7-D1B5-4A88-918A-3701F4B0E907}"/>
-  <mergeCells count="20">
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F18"/>
-    <mergeCell ref="F19:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-  </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="112" priority="7"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2 B5">
-    <cfRule type="duplicateValues" dxfId="214" priority="108"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="114"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="duplicateValues" dxfId="213" priority="107"/>
-    <cfRule type="duplicateValues" dxfId="212" priority="106"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="109" priority="113"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:K5">
-    <cfRule type="containsText" dxfId="211" priority="29" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="108" priority="34" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="107" priority="35" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="28" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:K6">
-    <cfRule type="containsText" dxfId="209" priority="16" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="106" priority="21" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="22" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="15" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:K26">
-    <cfRule type="containsText" dxfId="207" priority="12" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="104" priority="18" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:K7">
-    <cfRule type="containsText" dxfId="206" priority="27" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="103" priority="32" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="33" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="26" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7:K14">
-    <cfRule type="containsText" dxfId="204" priority="25" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="101" priority="30" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J7)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="31" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="203" priority="24" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:K8">
-    <cfRule type="containsText" dxfId="202" priority="23" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="99" priority="28" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J8)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="29" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J8)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="22" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K15">
-    <cfRule type="containsText" dxfId="200" priority="18" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="97" priority="24" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="19" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="96" priority="25" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15:K17">
-    <cfRule type="containsText" dxfId="198" priority="21" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="95" priority="26" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="27" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="20" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K26">
-    <cfRule type="containsText" dxfId="196" priority="13" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="93" priority="19" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="195" priority="14" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="92" priority="20" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:K24">
-    <cfRule type="containsText" dxfId="194" priority="4" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="91" priority="8" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",J24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="9" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",J24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="10" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="5" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="88" priority="11" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="6" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="87" priority="12" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="7" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="86" priority="13" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="8" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="85" priority="14" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="9" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="84" priority="15" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="188" priority="10" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="83" priority="16" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",J24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="187" priority="11" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="82" priority="17" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",J24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="2" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",J24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="3" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",J24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:N5">
-    <cfRule type="containsText" dxfId="184" priority="17" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="81" priority="23" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",J2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:N8">
-    <cfRule type="containsText" dxfId="183" priority="100" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="80" priority="105" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="79" priority="106" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="99" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:N5">
-    <cfRule type="containsText" dxfId="181" priority="102" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="78" priority="107" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="108" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L4)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="101" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:N5">
-    <cfRule type="containsText" dxfId="179" priority="105" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="76" priority="109" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="75" priority="110" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L5)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="111" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="104" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="103" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:N26">
-    <cfRule type="containsText" dxfId="176" priority="98" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="73" priority="102" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="103" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="71" priority="104" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="175" priority="97" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L6)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="96" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10:N10">
-    <cfRule type="containsText" dxfId="173" priority="91" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="70" priority="94" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="95" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="92" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="68" priority="96" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="93" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="67" priority="97" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="98" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L10)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="99" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="94" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="64" priority="100" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="95" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="88" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="167" priority="89" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L10)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="90" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="63" priority="101" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:N12">
-    <cfRule type="containsText" dxfId="165" priority="86" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="62" priority="92" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="87" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="61" priority="93" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12:N12">
-    <cfRule type="containsText" dxfId="163" priority="82" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="60" priority="86" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="87" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="88" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="80" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="57" priority="89" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="90" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="55" priority="91" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="85" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="84" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="83" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="81" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13:N14">
-    <cfRule type="containsText" dxfId="157" priority="78" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="54" priority="84" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="79" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="53" priority="85" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:N14">
-    <cfRule type="containsText" dxfId="155" priority="75" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="52" priority="78" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="51" priority="79" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="76" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="50" priority="80" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="77" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="49" priority="81" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="48" priority="82" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L14)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="83" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="73" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="151" priority="72" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L14)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="74" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L14)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:N15">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15:N17">
-    <cfRule type="containsText" dxfId="149" priority="70" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="44" priority="76" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="71" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="43" priority="77" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:N17">
-    <cfRule type="containsText" dxfId="147" priority="65" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="42" priority="70" operator="containsText" text="WIP">
+      <formula>NOT(ISERROR(SEARCH("WIP",L17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="71" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="68" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="40" priority="72" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="64" operator="containsText" text="WIP">
-      <formula>NOT(ISERROR(SEARCH("WIP",L17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="66" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="39" priority="73" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="74" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="67" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="69" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="37" priority="75" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:N20">
-    <cfRule type="containsText" dxfId="141" priority="63" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="36" priority="68" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="69" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="62" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:N19">
-    <cfRule type="containsText" dxfId="139" priority="41" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="34" priority="47" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="42" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="33" priority="48" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:N20">
-    <cfRule type="containsText" dxfId="137" priority="56" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="32" priority="62" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="57" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="31" priority="63" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="58" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="30" priority="64" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="59" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="29" priority="65" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="60" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="28" priority="66" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="61" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="27" priority="67" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:N23">
-    <cfRule type="containsText" dxfId="131" priority="55" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="26" priority="60" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L21)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="61" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L21)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="54" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:N22">
-    <cfRule type="containsText" dxfId="129" priority="40" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="24" priority="43" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="44" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="39" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="22" priority="45" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="38" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="21" priority="46" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L22)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="37" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L23:N23">
-    <cfRule type="containsText" dxfId="125" priority="53" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="20" priority="54" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="52" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="19" priority="55" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L23)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="56" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="51" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="17" priority="57" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="50" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="16" priority="58" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L23)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="49" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L23)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="48" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="15" priority="59" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24:N26">
-    <cfRule type="containsText" dxfId="119" priority="47" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="14" priority="52" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="53" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="46" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:N25">
-    <cfRule type="containsText" dxfId="117" priority="31" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="12" priority="37" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="32" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="11" priority="38" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="33" operator="containsText" text="Complete">
+    <cfRule type="containsText" dxfId="10" priority="39" operator="containsText" text="Complete">
       <formula>NOT(ISERROR(SEARCH("Complete",L25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="34" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="9" priority="40" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:N26">
-    <cfRule type="containsText" dxfId="113" priority="36" operator="containsText" text="ROW">
+    <cfRule type="containsText" dxfId="8" priority="41" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L25)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="42" operator="containsText" text="ROW">
       <formula>NOT(ISERROR(SEARCH("ROW",L25)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="35" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L26:N26">
-    <cfRule type="containsText" dxfId="111" priority="30" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="6" priority="36" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="45" operator="containsText" text="WIP">
+    <cfRule type="containsText" dxfId="5" priority="49" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",L26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="50" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",L26)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="51" operator="containsText" text="WIP">
       <formula>NOT(ISERROR(SEARCH("WIP",L26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="44" operator="containsText" text="ROW">
-      <formula>NOT(ISERROR(SEARCH("ROW",L26)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="43" operator="containsText" text="Complete">
-      <formula>NOT(ISERROR(SEARCH("Complete",L26)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="N15">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Complete">
+      <formula>NOT(ISERROR(SEARCH("Complete",N15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="ROW">
+      <formula>NOT(ISERROR(SEARCH("ROW",N15)))</formula>
+    </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8210,50 +7288,50 @@
       <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
-    <col min="9" max="10" width="10.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="3.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="3.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="1" customWidth="1"/>
-    <col min="16" max="20" width="8.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="3.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="12.42578125" style="1" customWidth="1"/>
-    <col min="25" max="26" width="10.7109375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" customWidth="1"/>
-    <col min="28" max="28" width="17.28515625" style="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.453125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.54296875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.54296875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="10.7265625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.1796875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.1796875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.54296875" style="1" customWidth="1"/>
+    <col min="16" max="20" width="8.7265625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="3.1796875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7265625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="12.54296875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="12.453125" style="1" customWidth="1"/>
+    <col min="25" max="26" width="10.7265625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.453125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="17.26953125" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="38"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="6"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="13" t="s">
         <v>22</v>
       </c>
@@ -8270,7 +7348,7 @@
         <v>905812</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -8280,7 +7358,7 @@
       </c>
       <c r="O5" s="121"/>
     </row>
-    <row r="6" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="16" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="D6" s="2" t="s">
         <v>105</v>
@@ -8289,7 +7367,7 @@
         <v>32.6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="D7" s="2" t="s">
         <v>2</v>
@@ -8299,11 +7377,11 @@
         <v>82.4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="5.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
@@ -8325,13 +7403,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="13"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>33</v>
       </c>
@@ -8355,7 +7433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="D12" s="2" t="s">
         <v>25</v>
@@ -8377,7 +7455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="D13" s="2" t="s">
         <v>26</v>
@@ -8399,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="D14" s="2" t="s">
         <v>27</v>
@@ -8421,7 +7499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="D15" s="28" t="s">
         <v>28</v>
@@ -8443,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="D16" s="27" t="s">
         <v>29</v>
@@ -8465,125 +7543,125 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" s="5"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="174" t="s">
+    <row r="18" spans="1:28" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="174" t="s">
+      <c r="B18" s="162" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="170" t="s">
+      <c r="C18" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="170" t="s">
+      <c r="D18" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="174" t="s">
+      <c r="E18" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="161" t="s">
+      <c r="F18" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="164" t="s">
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="167" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="170" t="s">
+      <c r="M18" s="159" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="165" t="s">
+      <c r="O18" s="168" t="s">
         <v>31</v>
       </c>
-      <c r="P18" s="166"/>
-      <c r="Q18" s="166"/>
-      <c r="R18" s="166"/>
-      <c r="S18" s="166"/>
-      <c r="T18" s="167"/>
-      <c r="V18" s="165" t="s">
+      <c r="P18" s="169"/>
+      <c r="Q18" s="169"/>
+      <c r="R18" s="169"/>
+      <c r="S18" s="169"/>
+      <c r="T18" s="170"/>
+      <c r="V18" s="168" t="s">
         <v>30</v>
       </c>
-      <c r="W18" s="166"/>
-      <c r="X18" s="166"/>
-      <c r="Y18" s="166"/>
-      <c r="Z18" s="166"/>
-      <c r="AA18" s="167"/>
-      <c r="AB18" s="168" t="s">
+      <c r="W18" s="169"/>
+      <c r="X18" s="169"/>
+      <c r="Y18" s="169"/>
+      <c r="Z18" s="169"/>
+      <c r="AA18" s="170"/>
+      <c r="AB18" s="171" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="175"/>
-      <c r="B19" s="175"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="189" t="s">
+    <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="163"/>
+      <c r="B19" s="163"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="190" t="s">
+      <c r="G19" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="191"/>
-      <c r="I19" s="190" t="s">
+      <c r="H19" s="188"/>
+      <c r="I19" s="187" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="191"/>
-      <c r="K19" s="164"/>
-      <c r="M19" s="171"/>
-      <c r="O19" s="162" t="s">
+      <c r="J19" s="188"/>
+      <c r="K19" s="167"/>
+      <c r="M19" s="173"/>
+      <c r="O19" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="P19" s="162" t="s">
+      <c r="P19" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="162" t="s">
+      <c r="Q19" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="R19" s="162" t="s">
+      <c r="R19" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="S19" s="162" t="s">
+      <c r="S19" s="165" t="s">
         <v>28</v>
       </c>
       <c r="T19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="V19" s="162" t="s">
+      <c r="V19" s="165" t="s">
         <v>24</v>
       </c>
-      <c r="W19" s="162" t="s">
+      <c r="W19" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="X19" s="162" t="s">
+      <c r="X19" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="Y19" s="162" t="s">
+      <c r="Y19" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="Z19" s="162" t="s">
+      <c r="Z19" s="165" t="s">
         <v>28</v>
       </c>
       <c r="AA19" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="AB19" s="169"/>
-    </row>
-    <row r="20" spans="1:28" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="175"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="189"/>
+      <c r="AB19" s="172"/>
+    </row>
+    <row r="20" spans="1:28" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="163"/>
+      <c r="B20" s="163"/>
+      <c r="C20" s="160"/>
+      <c r="D20" s="163"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="186"/>
       <c r="G20" s="94" t="s">
         <v>10</v>
       </c>
@@ -8602,17 +7680,17 @@
       <c r="M20" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="163"/>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="163"/>
-      <c r="S20" s="163"/>
+      <c r="O20" s="166"/>
+      <c r="P20" s="166"/>
+      <c r="Q20" s="166"/>
+      <c r="R20" s="166"/>
+      <c r="S20" s="166"/>
       <c r="T20" s="19"/>
-      <c r="V20" s="163"/>
-      <c r="W20" s="163"/>
-      <c r="X20" s="163"/>
-      <c r="Y20" s="163"/>
-      <c r="Z20" s="163"/>
+      <c r="V20" s="166"/>
+      <c r="W20" s="166"/>
+      <c r="X20" s="166"/>
+      <c r="Y20" s="166"/>
+      <c r="Z20" s="166"/>
       <c r="AA20" s="19" t="s">
         <v>20</v>
       </c>
@@ -8620,7 +7698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>1</v>
       </c>
@@ -8633,7 +7711,7 @@
       <c r="D21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="192" t="s">
+      <c r="E21" s="185" t="s">
         <v>115</v>
       </c>
       <c r="F21" s="115">
@@ -8694,7 +7772,7 @@
         <v>3270887.1320000002</v>
       </c>
     </row>
-    <row r="22" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>2</v>
       </c>
@@ -8707,7 +7785,7 @@
       <c r="D22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="192"/>
+      <c r="E22" s="185"/>
       <c r="F22" s="115">
         <v>45913</v>
       </c>
@@ -8766,7 +7844,7 @@
         <v>3550783.04</v>
       </c>
     </row>
-    <row r="23" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8">
         <v>3</v>
       </c>
@@ -8779,7 +7857,7 @@
       <c r="D23" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="192"/>
+      <c r="E23" s="185"/>
       <c r="F23" s="115">
         <v>45910</v>
       </c>
@@ -8838,7 +7916,7 @@
         <v>253627.36000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8">
         <v>4</v>
       </c>
@@ -8851,7 +7929,7 @@
       <c r="D24" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="192"/>
+      <c r="E24" s="185"/>
       <c r="F24" s="115">
         <v>45927</v>
       </c>
@@ -8910,7 +7988,7 @@
         <v>283519.15600000002</v>
       </c>
     </row>
-    <row r="25" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>5</v>
       </c>
@@ -8923,7 +8001,7 @@
       <c r="D25" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="E25" s="192"/>
+      <c r="E25" s="185"/>
       <c r="F25" s="115">
         <v>45915</v>
       </c>
@@ -8982,7 +8060,7 @@
         <v>288954.02799999999</v>
       </c>
     </row>
-    <row r="26" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8">
         <v>6</v>
       </c>
@@ -9056,7 +8134,7 @@
         <v>4491015.8959999997</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8">
         <v>7</v>
       </c>
@@ -9128,7 +8206,7 @@
         <v>1454734.0720000002</v>
       </c>
     </row>
-    <row r="28" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>8</v>
       </c>
@@ -9200,7 +8278,7 @@
         <v>292577.27600000001</v>
       </c>
     </row>
-    <row r="29" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8">
         <v>9</v>
       </c>
@@ -9272,7 +8350,7 @@
         <v>4481051.9639999997</v>
       </c>
     </row>
-    <row r="30" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8">
         <v>10</v>
       </c>
@@ -9344,7 +8422,7 @@
         <v>2490983</v>
       </c>
     </row>
-    <row r="31" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>11</v>
       </c>
@@ -9416,7 +8494,7 @@
         <v>244569.24000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8">
         <v>12</v>
       </c>
@@ -9488,7 +8566,7 @@
         <v>623198.65599999996</v>
       </c>
     </row>
-    <row r="33" spans="1:28" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8">
         <v>13</v>
       </c>
@@ -9544,7 +8622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="127">
@@ -9618,18 +8696,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="O18:T18"/>
-    <mergeCell ref="V18:AA18"/>
-    <mergeCell ref="V19:V20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
     <mergeCell ref="AB18:AB19"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:H19"/>
@@ -9643,9 +8709,21 @@
     <mergeCell ref="Q19:Q20"/>
     <mergeCell ref="R19:R20"/>
     <mergeCell ref="S19:S20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="O18:T18"/>
+    <mergeCell ref="V18:AA18"/>
+    <mergeCell ref="V19:V20"/>
   </mergeCells>
   <conditionalFormatting sqref="C26:C27">
-    <cfRule type="containsText" dxfId="215" priority="1" operator="containsText" text="4DT6">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="4DT6">
       <formula>NOT(ISERROR(SEARCH("4DT6",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
